--- a/kunlik.xlsx
+++ b/kunlik.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>23.09.2000</t>
+          <t>13.12.1997</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -504,22 +504,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>asdas asdasd</t>
+          <t>Teliming MFY</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Oliy</t>
+          <t>👨‍🎓 Oliy</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hech qayerda ishlamaganman</t>
+          <t>♻️ Hech qayerda ishlamaganman</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Reklama</t>
+          <t>reklama</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -529,7 +529,62 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2023-06-10 10:13:51</t>
+          <t>2023-06-12 04:31:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>998913273231</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Qo'qon shahar</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>👨‍🎓 Oliy</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>♻️ Hech qayerda ishlamaganman</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Dizayner</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>O'tkazib yuborish</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2023-06-12 05:32:29</t>
         </is>
       </c>
     </row>
